--- a/Output/Descriptives/Missings_18h.xlsx
+++ b/Output/Descriptives/Missings_18h.xlsx
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>6.027397260273973</v>
+        <v>6.301369863013699</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>4.383561643835616</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>3.835616438356165</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>3.835616438356165</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>4.10958904109589</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>2.191780821917808</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>1.643835616438356</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>1.912568306010929</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="20">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.273972602739726</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="26">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>25.2054794520548</v>
+        <v>27.94520547945206</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.821917808219178</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="28">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>1.095890410958904</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="29">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>27.94520547945206</v>
       </c>
     </row>
     <row r="32">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>14.24657534246575</v>
+        <v>16.43835616438356</v>
       </c>
     </row>
     <row r="33">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>4.931506849315069</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="34">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>4.383561643835616</v>
+        <v>16.43835616438356</v>
       </c>
     </row>
     <row r="38">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>3.005464480874317</v>
+        <v>6.010928961748633</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>1.366120218579235</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="40">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>3.005464480874317</v>
+        <v>7.650273224043716</v>
       </c>
     </row>
     <row r="44">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>1.095890410958904</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="87">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>1.095890410958904</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="88">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>26.02739726027397</v>
+        <v>34.52054794520548</v>
       </c>
     </row>
     <row r="92">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="93">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="94">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>0.821917808219178</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="98">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D98">
-        <v>0.273224043715847</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="100">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D103">
-        <v>1.366120218579235</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="104">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>0.273972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="105">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D105">
-        <v>0.821917808219178</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="106">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="110">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>1.643835616438356</v>
+        <v>8.767123287671232</v>
       </c>
     </row>
     <row r="111">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D111">
-        <v>2.191780821917808</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="112">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D112">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="113">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>8.493150684931507</v>
       </c>
     </row>
     <row r="116">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D116">
-        <v>7.945205479452055</v>
+        <v>15.06849315068493</v>
       </c>
     </row>
     <row r="117">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D117">
-        <v>1.095890410958904</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="118">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>14.79452054794521</v>
       </c>
     </row>
     <row r="122">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D122">
-        <v>4.098360655737705</v>
+        <v>8.743169398907105</v>
       </c>
     </row>
     <row r="123">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D123">
-        <v>3.551912568306011</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="124">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D124">
-        <v>4.644808743169399</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="125">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>2.73224043715847</v>
+        <v>10.38251366120219</v>
       </c>
     </row>
     <row r="128">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D128">
-        <v>6.027397260273973</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="129">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D129">
-        <v>12.32876712328767</v>
+        <v>13.42465753424658</v>
       </c>
     </row>
     <row r="130">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D130">
-        <v>1.643835616438356</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="131">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D133">
-        <v>0.547945205479452</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="134">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D134">
-        <v>4.383561643835616</v>
+        <v>7.945205479452055</v>
       </c>
     </row>
     <row r="135">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D135">
-        <v>0.547945205479452</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="136">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D139">
-        <v>12.6027397260274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D140">
-        <v>1.917808219178082</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="141">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D141">
-        <v>3.287671232876712</v>
+        <v>6.027397260273973</v>
       </c>
     </row>
     <row r="142">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D145">
-        <v>0.273972602739726</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="146">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D146">
-        <v>1.092896174863388</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="147">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D147">
-        <v>0.546448087431694</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="148">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D151">
-        <v>12.84153005464481</v>
+        <v>14.75409836065574</v>
       </c>
     </row>
     <row r="152">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D152">
-        <v>1.643835616438356</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="153">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D153">
-        <v>0.273972602739726</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="154">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D157">
-        <v>26.02739726027397</v>
+        <v>29.31506849315069</v>
       </c>
     </row>
     <row r="158">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D158">
-        <v>2.191780821917808</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="159">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D159">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="160">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D160">
-        <v>15.34246575342466</v>
+        <v>15.89041095890411</v>
       </c>
     </row>
     <row r="161">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>10.68493150684932</v>
+        <v>13.97260273972603</v>
       </c>
     </row>
     <row r="164">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D164">
-        <v>5.753424657534246</v>
+        <v>7.671232876712329</v>
       </c>
     </row>
     <row r="165">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D165">
-        <v>4.383561643835616</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="166">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D166">
-        <v>67.12328767123287</v>
+        <v>68.21917808219177</v>
       </c>
     </row>
     <row r="167">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D169">
-        <v>17.26027397260274</v>
+        <v>20.54794520547945</v>
       </c>
     </row>
     <row r="170">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D170">
-        <v>1.917808219178082</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="171">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D171">
-        <v>1.095890410958904</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="172">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D175">
-        <v>0.547945205479452</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="176">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D176">
-        <v>1.36986301369863</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="177">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D177">
-        <v>2.465753424657534</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="178">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D181">
-        <v>0.821917808219178</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="182">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D182">
-        <v>2.73224043715847</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="183">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D183">
-        <v>1.639344262295082</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="184">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D187">
-        <v>2.185792349726776</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="188">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D188">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="189">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="190">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D193">
-        <v>0.273972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="194">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="D194">
-        <v>3.561643835616438</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="195">
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="D195">
-        <v>2.465753424657534</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="196">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D199">
-        <v>1.095890410958904</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="200">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="D200">
-        <v>4.10958904109589</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="201">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="D201">
-        <v>3.835616438356165</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="202">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="206">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="D206">
-        <v>5.737704918032787</v>
+        <v>8.743169398907105</v>
       </c>
     </row>
     <row r="207">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="D207">
-        <v>1.639344262295082</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="208">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="D211">
-        <v>3.278688524590164</v>
+        <v>10.92896174863388</v>
       </c>
     </row>
     <row r="212">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="D212">
-        <v>4.383561643835616</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="213">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D213">
-        <v>6.027397260273973</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="214">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="D214">
-        <v>5.753424657534246</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="215">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="D217">
-        <v>15.89041095890411</v>
+        <v>19.72602739726027</v>
       </c>
     </row>
     <row r="218">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="D218">
-        <v>4.383561643835616</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="219">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D219">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="220">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D223">
-        <v>55.06849315068493</v>
+        <v>56.98630136986301</v>
       </c>
     </row>
     <row r="224">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="D224">
-        <v>6.301369863013699</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="225">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="D225">
-        <v>4.383561643835616</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="226">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="D229">
-        <v>3.835616438356165</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="230">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="D230">
-        <v>1.092896174863388</v>
+        <v>1.366120218579235</v>
       </c>
     </row>
     <row r="231">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="D231">
-        <v>1.092896174863388</v>
+        <v>1.366120218579235</v>
       </c>
     </row>
     <row r="232">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="D235">
-        <v>3.551912568306011</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="236">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="D236">
-        <v>3.013698630136986</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="237">
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="D237">
-        <v>0.547945205479452</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="238">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D241">
-        <v>7.123287671232877</v>
+        <v>11.78082191780822</v>
       </c>
     </row>
     <row r="242">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="D242">
-        <v>1.36986301369863</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="243">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D243">
-        <v>1.095890410958904</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="244">
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="248">
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="D249">
-        <v>9.315068493150685</v>
+        <v>9.863013698630137</v>
       </c>
     </row>
     <row r="250">
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="D250">
-        <v>67.12328767123287</v>
+        <v>69.04109589041096</v>
       </c>
     </row>
     <row r="251">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D253">
-        <v>10.41095890410959</v>
+        <v>12.32876712328767</v>
       </c>
     </row>
     <row r="254">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="D259">
-        <v>3.835616438356165</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="260">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="D260">
-        <v>2.465753424657534</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="261">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="D261">
-        <v>2.465753424657534</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="262">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="D265">
-        <v>2.191780821917808</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="266">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D266">
-        <v>2.459016393442623</v>
+        <v>3.005464480874317</v>
       </c>
     </row>
     <row r="267">
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="D267">
-        <v>2.459016393442623</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="268">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="D271">
-        <v>2.459016393442623</v>
+        <v>4.371584699453552</v>
       </c>
     </row>
     <row r="272">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="D272">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="273">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D273">
-        <v>0.547945205479452</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="274">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="D274">
-        <v>2.465753424657534</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="275">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D277">
-        <v>0.273972602739726</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="278">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="D278">
-        <v>12.05479452054795</v>
+        <v>12.32876712328767</v>
       </c>
     </row>
     <row r="279">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="D279">
-        <v>3.835616438356165</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="280">
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="D280">
-        <v>26.84931506849315</v>
+        <v>28.21917808219178</v>
       </c>
     </row>
     <row r="281">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D283">
-        <v>1.095890410958904</v>
+        <v>12.32876712328767</v>
       </c>
     </row>
     <row r="284">
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="D284">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="285">
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="D285">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="286">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="290">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="D291">
-        <v>1.912568306010929</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="292">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="D295">
-        <v>1.912568306010929</v>
+        <v>7.377049180327869</v>
       </c>
     </row>
     <row r="296">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="D296">
-        <v>3.835616438356165</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="297">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="D297">
-        <v>3.561643835616438</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="298">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="302">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D303">
-        <v>2.191780821917808</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="304">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="D307">
-        <v>1.36986301369863</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="308">
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="D309">
-        <v>2.191780821917808</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="310">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D313">
-        <v>1.095890410958904</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="314">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="D319">
-        <v>1.366120218579235</v>
+        <v>3.005464480874317</v>
       </c>
     </row>
     <row r="320">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="D321">
-        <v>44.38356164383562</v>
+        <v>44.65753424657535</v>
       </c>
     </row>
     <row r="322">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="D325">
-        <v>43.56164383561644</v>
+        <v>45.75342465753425</v>
       </c>
     </row>
     <row r="326">
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="D339">
-        <v>1.643835616438356</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="340">
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="D340">
-        <v>4.931506849315069</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="341">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D343">
-        <v>1.917808219178082</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="344">
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="D344">
-        <v>1.643835616438356</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="345">
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="D345">
-        <v>0.821917808219178</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="346">
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="D349">
-        <v>0.821917808219178</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="350">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="D350">
-        <v>1.912568306010929</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="351">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="D351">
-        <v>1.366120218579235</v>
+        <v>3.005464480874317</v>
       </c>
     </row>
     <row r="352">
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="D352">
-        <v>1.092896174863388</v>
+        <v>1.366120218579235</v>
       </c>
     </row>
     <row r="353">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D355">
-        <v>1.639344262295082</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="356">
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="D357">
-        <v>1.917808219178082</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="358">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="D361">
-        <v>1.643835616438356</v>
+        <v>81.36986301369863</v>
       </c>
     </row>
     <row r="362">
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="D362">
-        <v>1.36986301369863</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="363">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D363">
-        <v>4.383561643835616</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="364">
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="365">
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="368">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="D368">
-        <v>2.73972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="369">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="D369">
-        <v>0.821917808219178</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="370">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D373">
-        <v>0.547945205479452</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="374">
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="D374">
-        <v>4.918032786885246</v>
+        <v>6.284153005464481</v>
       </c>
     </row>
     <row r="375">
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="D375">
-        <v>1.639344262295082</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="376">
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="D376">
-        <v>16.93989071038251</v>
+        <v>17.21311475409836</v>
       </c>
     </row>
     <row r="377">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="D379">
-        <v>1.366120218579235</v>
+        <v>7.650273224043716</v>
       </c>
     </row>
     <row r="380">
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="D381">
-        <v>7.945205479452055</v>
+        <v>9.04109589041096</v>
       </c>
     </row>
     <row r="382">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="D382">
-        <v>2.73972602739726</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="383">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="D385">
-        <v>2.191780821917808</v>
+        <v>50.13698630136987</v>
       </c>
     </row>
     <row r="386">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="D387">
-        <v>6.575342465753424</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="388">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="D391">
-        <v>15.61643835616438</v>
+        <v>18.08219178082192</v>
       </c>
     </row>
     <row r="392">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D393">
-        <v>4.931506849315069</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="394">
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="D394">
-        <v>35.89041095890411</v>
+        <v>36.43835616438356</v>
       </c>
     </row>
     <row r="395">
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="D397">
-        <v>4.10958904109589</v>
+        <v>6.027397260273973</v>
       </c>
     </row>
     <row r="398">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="D399">
-        <v>0.546448087431694</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="400">
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="D400">
-        <v>51.91256830601093</v>
+        <v>52.18579234972678</v>
       </c>
     </row>
     <row r="401">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D403">
-        <v>0.819672131147541</v>
+        <v>5.191256830601093</v>
       </c>
     </row>
     <row r="404">
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="D404">
-        <v>2.73972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="405">
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="D405">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="406">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="D409">
-        <v>6.027397260273973</v>
+        <v>8.21917808219178</v>
       </c>
     </row>
     <row r="410">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="D410">
-        <v>6.027397260273973</v>
+        <v>6.301369863013699</v>
       </c>
     </row>
     <row r="411">
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="D411">
-        <v>2.73972602739726</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="412">
@@ -7774,7 +7774,7 @@
         </is>
       </c>
       <c r="D412">
-        <v>2.73972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="413">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="D415">
-        <v>2.465753424657534</v>
+        <v>6.301369863013699</v>
       </c>
     </row>
     <row r="416">
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="D417">
-        <v>2.73972602739726</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="418">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="D418">
-        <v>67.12328767123287</v>
+        <v>69.31506849315069</v>
       </c>
     </row>
     <row r="419">
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="D421">
-        <v>8.493150684931507</v>
+        <v>10.41095890410959</v>
       </c>
     </row>
     <row r="422">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D423">
-        <v>0.273972602739726</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="424">
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="425">
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="D427">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="428">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="D428">
-        <v>0.547945205479452</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="429">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="430">
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="D430">
-        <v>0.273972602739726</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="431">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D433">
-        <v>0.547945205479452</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="434">
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="D434">
-        <v>3.278688524590164</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="435">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="D435">
-        <v>2.73224043715847</v>
+        <v>6.010928961748633</v>
       </c>
     </row>
     <row r="436">
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="D436">
-        <v>1.366120218579235</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="437">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="D439">
-        <v>1.912568306010929</v>
+        <v>5.191256830601093</v>
       </c>
     </row>
     <row r="440">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="D440">
-        <v>0.821917808219178</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="441">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="442">
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="D442">
-        <v>0.547945205479452</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="443">
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="446">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="D446">
-        <v>2.465753424657534</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="447">
@@ -8404,7 +8404,7 @@
         </is>
       </c>
       <c r="D447">
-        <v>1.36986301369863</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="448">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="D448">
-        <v>0.273972602739726</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="449">
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="D451">
-        <v>0.273972602739726</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="452">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="D452">
-        <v>3.287671232876712</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="453">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D453">
-        <v>3.013698630136986</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="454">
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="D454">
-        <v>16.98630136986301</v>
+        <v>17.26027397260274</v>
       </c>
     </row>
     <row r="455">
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="D457">
-        <v>0.273972602739726</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="458">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="D458">
-        <v>10.10928961748634</v>
+        <v>10.65573770491803</v>
       </c>
     </row>
     <row r="459">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D459">
-        <v>6.557377049180328</v>
+        <v>7.377049180327869</v>
       </c>
     </row>
     <row r="460">
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="D460">
-        <v>3.005464480874317</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="461">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D463">
-        <v>7.377049180327869</v>
+        <v>15.84699453551913</v>
       </c>
     </row>
     <row r="464">
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="D465">
-        <v>6.301369863013699</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="466">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="D466">
-        <v>4.10958904109589</v>
+        <v>9.04109589041096</v>
       </c>
     </row>
     <row r="467">
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="D470">
-        <v>7.397260273972603</v>
+        <v>7.945205479452055</v>
       </c>
     </row>
     <row r="471">
@@ -8836,7 +8836,7 @@
         </is>
       </c>
       <c r="D471">
-        <v>9.315068493150685</v>
+        <v>10.41095890410959</v>
       </c>
     </row>
     <row r="472">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D472">
-        <v>12.32876712328767</v>
+        <v>12.87671232876712</v>
       </c>
     </row>
     <row r="473">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="D475">
-        <v>70.41095890410959</v>
+        <v>72.32876712328768</v>
       </c>
     </row>
     <row r="476">
@@ -8926,7 +8926,7 @@
         </is>
       </c>
       <c r="D476">
-        <v>3.013698630136986</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="477">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="D478">
-        <v>1.917808219178082</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="479">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="D481">
-        <v>1.36986301369863</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="482">
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="D482">
-        <v>3.551912568306011</v>
+        <v>7.103825136612022</v>
       </c>
     </row>
     <row r="483">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D483">
-        <v>3.005464480874317</v>
+        <v>5.191256830601093</v>
       </c>
     </row>
     <row r="484">
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="D487">
-        <v>7.103825136612022</v>
+        <v>12.02185792349727</v>
       </c>
     </row>
     <row r="488">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="D488">
-        <v>3.287671232876712</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="489">
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="D489">
-        <v>1.095890410958904</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="490">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D493">
-        <v>3.013698630136986</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="494">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="D494">
-        <v>4.10958904109589</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="495">
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="D495">
-        <v>4.10958904109589</v>
+        <v>4.657534246575342</v>
       </c>
     </row>
     <row r="496">
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="D499">
-        <v>3.013698630136986</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="500">
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="D500">
-        <v>5.205479452054795</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="501">
@@ -9376,7 +9376,7 @@
         </is>
       </c>
       <c r="D501">
-        <v>2.73972602739726</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="502">
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="D502">
-        <v>68.49315068493151</v>
+        <v>71.78082191780823</v>
       </c>
     </row>
     <row r="503">
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="D505">
-        <v>14.52054794520548</v>
+        <v>17.80821917808219</v>
       </c>
     </row>
     <row r="506">
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="D506">
-        <v>2.73972602739726</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="507">
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="D507">
-        <v>2.465753424657534</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="508">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="D508">
-        <v>1.917808219178082</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="509">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D511">
-        <v>1.643835616438356</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="512">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="D513">
-        <v>3.561643835616438</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="514">
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="D517">
-        <v>32.60273972602739</v>
+        <v>33.15068493150685</v>
       </c>
     </row>
     <row r="518">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="D518">
-        <v>2.185792349726776</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="519">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="D519">
-        <v>1.366120218579235</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="520">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="D523">
-        <v>1.639344262295082</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="524">
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="D525">
-        <v>0.547945205479452</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="526">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>18.35616438356164</v>
       </c>
     </row>
     <row r="530">
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="D530">
-        <v>13.97260273972603</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="531">
@@ -9916,7 +9916,7 @@
         </is>
       </c>
       <c r="D531">
-        <v>0.273972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="532">
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="D532">
-        <v>6.575342465753424</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="533">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="536">
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="D536">
-        <v>2.465753424657534</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="537">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D537">
-        <v>0.821917808219178</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="538">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="D541">
-        <v>0.821917808219178</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="542">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="D542">
-        <v>3.278688524590164</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="543">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>1.366120218579235</v>
       </c>
     </row>
     <row r="544">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="D547">
-        <v>0.819672131147541</v>
+        <v>4.371584699453552</v>
       </c>
     </row>
     <row r="548">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="D549">
-        <v>0.273972602739726</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="550">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="D553">
-        <v>4.383561643835616</v>
+        <v>7.945205479452055</v>
       </c>
     </row>
     <row r="554">
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="D555">
-        <v>3.287671232876712</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="556">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="D559">
-        <v>1.917808219178082</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="560">
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="D561">
-        <v>2.73972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="562">
@@ -10474,7 +10474,7 @@
         </is>
       </c>
       <c r="D562">
-        <v>2.191780821917808</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="563">
@@ -10528,7 +10528,7 @@
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="566">
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="D571">
-        <v>1.912568306010929</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="572">
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="D574">
-        <v>18.63013698630137</v>
+        <v>18.9041095890411</v>
       </c>
     </row>
     <row r="575">
@@ -10744,7 +10744,7 @@
         </is>
       </c>
       <c r="D577">
-        <v>4.931506849315069</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="578">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="D578">
-        <v>1.643835616438356</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="579">
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="D579">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="580">
@@ -10798,7 +10798,7 @@
         </is>
       </c>
       <c r="D580">
-        <v>1.095890410958904</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="581">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D583">
-        <v>0.547945205479452</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="584">
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="D584">
-        <v>2.73972602739726</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="585">
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="D585">
-        <v>0.273972602739726</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="586">
@@ -10906,7 +10906,7 @@
         </is>
       </c>
       <c r="D586">
-        <v>67.12328767123287</v>
+        <v>69.31506849315069</v>
       </c>
     </row>
     <row r="587">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D589">
-        <v>13.6986301369863</v>
+        <v>15.89041095890411</v>
       </c>
     </row>
     <row r="590">
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="D590">
-        <v>3.561643835616438</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="591">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="D591">
-        <v>2.191780821917808</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="592">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="D595">
-        <v>2.191780821917808</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="596">
@@ -11086,7 +11086,7 @@
         </is>
       </c>
       <c r="D596">
-        <v>1.917808219178082</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="597">
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="D597">
-        <v>2.191780821917808</v>
+        <v>6.027397260273973</v>
       </c>
     </row>
     <row r="598">
@@ -11176,7 +11176,7 @@
         </is>
       </c>
       <c r="D601">
-        <v>1.643835616438356</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="602">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D602">
-        <v>1.092896174863388</v>
+        <v>4.371584699453552</v>
       </c>
     </row>
     <row r="603">
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="D603">
-        <v>0.819672131147541</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="604">
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="D607">
-        <v>1.912568306010929</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="608">
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="D608">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="609">
@@ -11320,7 +11320,7 @@
         </is>
       </c>
       <c r="D609">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="610">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="D613">
-        <v>0.273972602739726</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="614">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="D614">
-        <v>3.561643835616438</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="615">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D615">
-        <v>1.095890410958904</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="616">
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="D619">
-        <v>1.095890410958904</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="620">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="D620">
-        <v>3.013698630136986</v>
+        <v>10.41095890410959</v>
       </c>
     </row>
     <row r="621">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="D621">
-        <v>4.657534246575342</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="622">
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="D625">
-        <v>0.547945205479452</v>
+        <v>10.68493150684932</v>
       </c>
     </row>
     <row r="626">
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="D626">
-        <v>5.737704918032787</v>
+        <v>8.469945355191257</v>
       </c>
     </row>
     <row r="627">
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="D627">
-        <v>0.273224043715847</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="628">
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="D631">
-        <v>1.092896174863388</v>
+        <v>9.562841530054644</v>
       </c>
     </row>
     <row r="632">
@@ -11734,7 +11734,7 @@
         </is>
       </c>
       <c r="D632">
-        <v>24.38356164383562</v>
+        <v>25.75342465753425</v>
       </c>
     </row>
     <row r="633">
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="D633">
-        <v>1.36986301369863</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="634">
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="D634">
-        <v>6.027397260273973</v>
+        <v>6.301369863013699</v>
       </c>
     </row>
     <row r="635">
@@ -11824,7 +11824,7 @@
         </is>
       </c>
       <c r="D637">
-        <v>5.205479452054795</v>
+        <v>30.41095890410959</v>
       </c>
     </row>
     <row r="638">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="D638">
-        <v>9.315068493150685</v>
+        <v>10.41095890410959</v>
       </c>
     </row>
     <row r="639">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="D639">
-        <v>6.027397260273973</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="640">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="D643">
-        <v>9.863013698630137</v>
+        <v>18.63013698630137</v>
       </c>
     </row>
     <row r="644">
@@ -11950,7 +11950,7 @@
         </is>
       </c>
       <c r="D644">
-        <v>4.931506849315069</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="645">
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="D645">
-        <v>3.561643835616438</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="646">
@@ -12040,7 +12040,7 @@
         </is>
       </c>
       <c r="D649">
-        <v>2.73972602739726</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="650">
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="D650">
-        <v>0.819672131147541</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="651">
@@ -12076,7 +12076,7 @@
         </is>
       </c>
       <c r="D651">
-        <v>0.819672131147541</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="652">
@@ -12148,7 +12148,7 @@
         </is>
       </c>
       <c r="D655">
-        <v>3.825136612021858</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="656">
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="D656">
-        <v>3.561643835616438</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="657">
@@ -12184,7 +12184,7 @@
         </is>
       </c>
       <c r="D657">
-        <v>0.547945205479452</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="658">
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="D661">
-        <v>4.383561643835616</v>
+        <v>11.23287671232877</v>
       </c>
     </row>
     <row r="662">
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="D662">
-        <v>1.643835616438356</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="663">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="668">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="D668">
-        <v>6.575342465753424</v>
+        <v>8.21917808219178</v>
       </c>
     </row>
     <row r="669">
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="D669">
-        <v>4.657534246575342</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="670">
@@ -12418,7 +12418,7 @@
         </is>
       </c>
       <c r="D670">
-        <v>67.12328767123287</v>
+        <v>68.21917808219177</v>
       </c>
     </row>
     <row r="671">
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="D673">
-        <v>9.58904109589041</v>
+        <v>13.97260273972603</v>
       </c>
     </row>
     <row r="674">
@@ -12508,7 +12508,7 @@
         </is>
       </c>
       <c r="D675">
-        <v>2.465753424657534</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="676">
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="D679">
-        <v>46.3013698630137</v>
+        <v>49.04109589041096</v>
       </c>
     </row>
     <row r="680">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="681">
@@ -12616,7 +12616,7 @@
         </is>
       </c>
       <c r="D681">
-        <v>0.273972602739726</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="682">
@@ -12688,7 +12688,7 @@
         </is>
       </c>
       <c r="D685">
-        <v>0.821917808219178</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="686">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D686">
-        <v>0.273224043715847</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="687">
@@ -12724,7 +12724,7 @@
         </is>
       </c>
       <c r="D687">
-        <v>0.273224043715847</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="688">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="D691">
-        <v>2.185792349726776</v>
+        <v>4.371584699453552</v>
       </c>
     </row>
     <row r="692">
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="D692">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="693">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="694">
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="698">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="D698">
-        <v>3.835616438356165</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="699">
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="D699">
-        <v>2.73972602739726</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="700">
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="D703">
-        <v>0</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="704">
@@ -13030,7 +13030,7 @@
         </is>
       </c>
       <c r="D704">
-        <v>2.191780821917808</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="705">
@@ -13048,7 +13048,7 @@
         </is>
       </c>
       <c r="D705">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="706">
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="D709">
-        <v>0</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="710">
@@ -13138,7 +13138,7 @@
         </is>
       </c>
       <c r="D710">
-        <v>3.278688524590164</v>
+        <v>4.098360655737705</v>
       </c>
     </row>
     <row r="711">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="D711">
-        <v>1.092896174863388</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="712">
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="D715">
-        <v>1.092896174863388</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="716">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="D716">
-        <v>3.835616438356165</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="717">
@@ -13264,7 +13264,7 @@
         </is>
       </c>
       <c r="D717">
-        <v>5.205479452054795</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="718">
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="D721">
-        <v>0.547945205479452</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="722">
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="D722">
-        <v>7.397260273972603</v>
+        <v>8.767123287671232</v>
       </c>
     </row>
     <row r="723">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="D723">
-        <v>1.095890410958904</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="724">
@@ -13444,7 +13444,7 @@
         </is>
       </c>
       <c r="D727">
-        <v>28.76712328767123</v>
+        <v>34.24657534246575</v>
       </c>
     </row>
     <row r="728">
@@ -13480,7 +13480,7 @@
         </is>
       </c>
       <c r="D729">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="730">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="D733">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="734">
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="D734">
-        <v>1.366120218579235</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="735">
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="D739">
-        <v>4.644808743169399</v>
+        <v>5.191256830601093</v>
       </c>
     </row>
     <row r="740">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D745">
-        <v>14.79452054794521</v>
+        <v>16.43835616438356</v>
       </c>
     </row>
     <row r="746">
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="D752">
-        <v>12.32876712328767</v>
+        <v>12.6027397260274</v>
       </c>
     </row>
     <row r="753">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="D753">
-        <v>11.23287671232877</v>
+        <v>11.50684931506849</v>
       </c>
     </row>
     <row r="754">
@@ -13984,7 +13984,7 @@
         </is>
       </c>
       <c r="D757">
-        <v>10.68493150684932</v>
+        <v>12.6027397260274</v>
       </c>
     </row>
     <row r="758">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D758">
-        <v>3.013698630136986</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="759">
@@ -14020,7 +14020,7 @@
         </is>
       </c>
       <c r="D759">
-        <v>5.205479452054795</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="760">
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="D763">
-        <v>60.54794520547945</v>
+        <v>62.19178082191781</v>
       </c>
     </row>
     <row r="764">
@@ -14110,7 +14110,7 @@
         </is>
       </c>
       <c r="D764">
-        <v>1.643835616438356</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="765">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="D765">
-        <v>1.36986301369863</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="766">
@@ -14200,7 +14200,7 @@
         </is>
       </c>
       <c r="D769">
-        <v>2.191780821917808</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="770">
@@ -14218,7 +14218,7 @@
         </is>
       </c>
       <c r="D770">
-        <v>2.459016393442623</v>
+        <v>3.551912568306011</v>
       </c>
     </row>
     <row r="771">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D771">
-        <v>2.459016393442623</v>
+        <v>4.918032786885246</v>
       </c>
     </row>
     <row r="772">
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="D775">
-        <v>2.73224043715847</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="776">
@@ -14326,7 +14326,7 @@
         </is>
       </c>
       <c r="D776">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="777">
@@ -14344,7 +14344,7 @@
         </is>
       </c>
       <c r="D777">
-        <v>0.273972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="778">
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="D781">
-        <v>0.273972602739726</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="782">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D783">
-        <v>4.10958904109589</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="784">
@@ -14470,7 +14470,7 @@
         </is>
       </c>
       <c r="D784">
-        <v>1.36986301369863</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="785">
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="D787">
-        <v>1.095890410958904</v>
+        <v>80.54794520547945</v>
       </c>
     </row>
     <row r="788">
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="D788">
-        <v>12.87671232876712</v>
+        <v>13.97260273972603</v>
       </c>
     </row>
     <row r="789">
@@ -14560,7 +14560,7 @@
         </is>
       </c>
       <c r="D789">
-        <v>1.36986301369863</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="790">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D793">
-        <v>0.273972602739726</v>
+        <v>13.97260273972603</v>
       </c>
     </row>
     <row r="794">
@@ -14650,7 +14650,7 @@
         </is>
       </c>
       <c r="D794">
-        <v>6.010928961748633</v>
+        <v>9.016393442622951</v>
       </c>
     </row>
     <row r="795">
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="D799">
-        <v>1.366120218579235</v>
+        <v>9.562841530054644</v>
       </c>
     </row>
     <row r="800">
@@ -14758,7 +14758,7 @@
         </is>
       </c>
       <c r="D800">
-        <v>12.87671232876712</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="801">
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="D801">
-        <v>6.027397260273973</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="802">
@@ -14794,7 +14794,7 @@
         </is>
       </c>
       <c r="D802">
-        <v>4.10958904109589</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="803">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="D805">
-        <v>3.013698630136986</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="806">
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="D806">
-        <v>9.315068493150685</v>
+        <v>10.13698630136986</v>
       </c>
     </row>
     <row r="807">
@@ -14884,7 +14884,7 @@
         </is>
       </c>
       <c r="D807">
-        <v>5.205479452054795</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="808">
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="D811">
-        <v>7.123287671232877</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="812">
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="D817">
-        <v>0.547945205479452</v>
+        <v>6.575342465753424</v>
       </c>
     </row>
     <row r="818">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="D823">
-        <v>93.71584699453553</v>
+        <v>94.53551912568307</v>
       </c>
     </row>
     <row r="824">
@@ -15190,7 +15190,7 @@
         </is>
       </c>
       <c r="D824">
-        <v>44.93150684931507</v>
+        <v>46.02739726027397</v>
       </c>
     </row>
     <row r="825">
@@ -15298,7 +15298,7 @@
         </is>
       </c>
       <c r="D830">
-        <v>3.013698630136986</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="831">
@@ -15388,7 +15388,7 @@
         </is>
       </c>
       <c r="D835">
-        <v>4.931506849315069</v>
+        <v>7.397260273972603</v>
       </c>
     </row>
     <row r="836">
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="D836">
-        <v>3.561643835616438</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="837">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="D841">
-        <v>11.23287671232877</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="842">
@@ -15514,7 +15514,7 @@
         </is>
       </c>
       <c r="D842">
-        <v>3.287671232876712</v>
+        <v>3.835616438356165</v>
       </c>
     </row>
     <row r="843">
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="D843">
-        <v>3.013698630136986</v>
+        <v>5.205479452054795</v>
       </c>
     </row>
     <row r="844">
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="D847">
-        <v>78.9041095890411</v>
+        <v>80.27397260273973</v>
       </c>
     </row>
     <row r="848">
@@ -15622,7 +15622,7 @@
         </is>
       </c>
       <c r="D848">
-        <v>1.095890410958904</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="849">
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="D849">
-        <v>0.547945205479452</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="850">
@@ -15712,7 +15712,7 @@
         </is>
       </c>
       <c r="D853">
-        <v>0.821917808219178</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="854">
@@ -15730,7 +15730,7 @@
         </is>
       </c>
       <c r="D854">
-        <v>1.366120218579235</v>
+        <v>2.185792349726776</v>
       </c>
     </row>
     <row r="855">
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="D855">
-        <v>0.819672131147541</v>
+        <v>4.371584699453552</v>
       </c>
     </row>
     <row r="856">
@@ -15820,7 +15820,7 @@
         </is>
       </c>
       <c r="D859">
-        <v>3.278688524590164</v>
+        <v>6.830601092896176</v>
       </c>
     </row>
     <row r="860">
@@ -15838,7 +15838,7 @@
         </is>
       </c>
       <c r="D860">
-        <v>0.547945205479452</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="861">
@@ -15856,7 +15856,7 @@
         </is>
       </c>
       <c r="D861">
-        <v>0</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="862">
@@ -15928,7 +15928,7 @@
         </is>
       </c>
       <c r="D865">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="866">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="D866">
-        <v>3.561643835616438</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="867">
@@ -15964,7 +15964,7 @@
         </is>
       </c>
       <c r="D867">
-        <v>0.821917808219178</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="868">
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="D868">
-        <v>6.301369863013699</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="869">
@@ -16036,7 +16036,7 @@
         </is>
       </c>
       <c r="D871">
-        <v>0</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="872">
@@ -16054,7 +16054,7 @@
         </is>
       </c>
       <c r="D872">
-        <v>1.917808219178082</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="873">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="D873">
-        <v>0.547945205479452</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="874">
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="D877">
-        <v>0.273972602739726</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="878">
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="D878">
-        <v>3.825136612021858</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="879">
@@ -16180,7 +16180,7 @@
         </is>
       </c>
       <c r="D879">
-        <v>67.21311475409836</v>
+        <v>68.0327868852459</v>
       </c>
     </row>
     <row r="880">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="D883">
-        <v>63.66120218579236</v>
+        <v>65.57377049180327</v>
       </c>
     </row>
     <row r="884">
@@ -16378,7 +16378,7 @@
         </is>
       </c>
       <c r="D890">
-        <v>7.945205479452055</v>
+        <v>8.493150684931507</v>
       </c>
     </row>
     <row r="891">
@@ -16702,7 +16702,7 @@
         </is>
       </c>
       <c r="D908">
-        <v>2.191780821917808</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="909">
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="D914">
-        <v>2.465753424657534</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="915">
@@ -16918,7 +16918,7 @@
         </is>
       </c>
       <c r="D920">
-        <v>2.73972602739726</v>
+        <v>3.013698630136986</v>
       </c>
     </row>
     <row r="921">
